--- a/datafiles/test.xlsx
+++ b/datafiles/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/IdeaProjects/FalconMain/datafiles/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="1">
   <si>
     <t>TestDat in file</t>
   </si>
@@ -42,6 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -395,7 +396,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">

--- a/datafiles/test.xlsx
+++ b/datafiles/test.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="1">
   <si>
     <t>TestDat in file</t>
   </si>

--- a/datafiles/test.xlsx
+++ b/datafiles/test.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/IdeaProjects/FalconMain/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F05BBA2-FD0A-4442-A885-85871BA3E209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5F05BBA2-FD0A-4442-A885-85871BA3E209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AF1199A-799F-4D1A-9B15-3475403BFE35}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{0FC6C896-389E-6D45-8DC3-287C753417D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,16 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="1">
-  <si>
-    <t>TestDat in file</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -388,39 +384,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C207F39F-C193-2F4F-92E7-3B81C10ED359}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="C1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="3" max="3" width="16.64453125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>12</v>
-      </c>
-      <c r="C1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1" x14ac:dyDescent="0.2"/>
+    <row r="2" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datafiles/test.xlsx
+++ b/datafiles/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/IdeaProjects/FalconMain/datafiles/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,11 +34,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="1">
+  <si>
+    <t>TestDat in file</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -392,11 +397,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.64453125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="16.64453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2"/>
-    <row r="2" x14ac:dyDescent="0.2"/>
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datafiles/test.xlsx
+++ b/datafiles/test.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="5">
   <si>
     <t>TestDat in file</t>
   </si>

--- a/datafiles/test.xlsx
+++ b/datafiles/test.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="8">
   <si>
     <t>TestDat in file</t>
   </si>

--- a/datafiles/test.xlsx
+++ b/datafiles/test.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="9">
   <si>
     <t>TestDat in file</t>
   </si>

--- a/datafiles/test.xlsx
+++ b/datafiles/test.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="10">
   <si>
     <t>TestDat in file</t>
   </si>

--- a/datafiles/test.xlsx
+++ b/datafiles/test.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="11">
   <si>
     <t>TestDat in file</t>
   </si>
